--- a/biology/Zoologie/Euphydryas/Euphydryas.xlsx
+++ b/biology/Zoologie/Euphydryas/Euphydryas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphydryas est un genre holarctique de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Nymphalinae et de la tribu des Melitaeini.
-Ses espèces sont appelées « Damiers » en français[1].
+Ses espèces sont appelées « Damiers » en français.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Euphydryas a été décrit par l'entomologiste américain Samuel Hubbard Scudder en 1872. L'espèce type est Papilio phaeton Drury, [1773][2].
-On recense les synonymes suivants[2] : 
-Lemonias Hübner, [1806] (suppr.)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Euphydryas a été décrit par l'entomologiste américain Samuel Hubbard Scudder en 1872. L'espèce type est Papilio phaeton Drury, .
+On recense les synonymes suivants : 
+Lemonias Hübner,  (suppr.)
 Hypodryas Higgins, 1978
 Occidryas Higgins, 1978
 Eurodryas Higgins, 1978</t>
@@ -547,12 +561,14 @@
           <t>Liste des espèces et distributions géographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après la liste de Funet[2], augmentée de découvertes récentes[3] :
-Euphydryas phaeton (Drury, [1773]) —  dans l'Est de l'Amérique du Nord.
-Euphydryas anicia (Doubleday, [1847]) — dans l'Ouest de l'Amérique du Nord.
-Euphydryas chalcedona (Doubleday, [1847]) — dans l'Ouest de l'Amérique du Nord.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la liste de Funet, augmentée de découvertes récentes :
+Euphydryas phaeton (Drury, ) —  dans l'Est de l'Amérique du Nord.
+Euphydryas anicia (Doubleday, ) — dans l'Ouest de l'Amérique du Nord.
+Euphydryas chalcedona (Doubleday, ) — dans l'Ouest de l'Amérique du Nord.
 Euphydryas colon (Edwards, 1881) — dans le Nord-Ouest de l'Amérique du Nord.
 Euphydryas editha (Boisduval, 1852) —  dans l'Ouest de l'Amérique du Nord.
 Euphydryas maturna (Linnaeus, 1758) — le Damier du frêne — disséminé à travers l'Eurasie.
